--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.952791</v>
+        <v>0.4646496666666666</v>
       </c>
       <c r="H2">
-        <v>59.858373</v>
+        <v>1.393949</v>
       </c>
       <c r="I2">
-        <v>0.6991080337323071</v>
+        <v>0.08919948595155881</v>
       </c>
       <c r="J2">
-        <v>0.6991080337323072</v>
+        <v>0.08919948595155881</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N2">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O2">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P2">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q2">
-        <v>45.90956303794933</v>
+        <v>0.1408566878513333</v>
       </c>
       <c r="R2">
-        <v>413.186067341544</v>
+        <v>1.267710190662</v>
       </c>
       <c r="S2">
-        <v>0.0264051681200209</v>
+        <v>0.0004587400413853824</v>
       </c>
       <c r="T2">
-        <v>0.0264051681200209</v>
+        <v>0.0004587400413853824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.952791</v>
+        <v>0.4646496666666666</v>
       </c>
       <c r="H3">
-        <v>59.858373</v>
+        <v>1.393949</v>
       </c>
       <c r="I3">
-        <v>0.6991080337323071</v>
+        <v>0.08919948595155881</v>
       </c>
       <c r="J3">
-        <v>0.6991080337323072</v>
+        <v>0.08919948595155881</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.889365</v>
       </c>
       <c r="O3">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P3">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q3">
-        <v>338.4616213225717</v>
+        <v>7.881908828042777</v>
       </c>
       <c r="R3">
-        <v>3046.154591903145</v>
+        <v>70.937179452385</v>
       </c>
       <c r="S3">
-        <v>0.1946682874286959</v>
+        <v>0.02566968766004481</v>
       </c>
       <c r="T3">
-        <v>0.1946682874286959</v>
+        <v>0.02566968766004481</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.952791</v>
+        <v>0.4646496666666666</v>
       </c>
       <c r="H4">
-        <v>59.858373</v>
+        <v>1.393949</v>
       </c>
       <c r="I4">
-        <v>0.6991080337323071</v>
+        <v>0.08919948595155881</v>
       </c>
       <c r="J4">
-        <v>0.6991080337323072</v>
+        <v>0.08919948595155881</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N4">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O4">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P4">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q4">
-        <v>831.138756689033</v>
+        <v>19.36604517356333</v>
       </c>
       <c r="R4">
-        <v>7480.248810201297</v>
+        <v>174.29440656207</v>
       </c>
       <c r="S4">
-        <v>0.4780345781835904</v>
+        <v>0.06307105825012863</v>
       </c>
       <c r="T4">
-        <v>0.4780345781835904</v>
+        <v>0.06307105825012863</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>9.421533</v>
       </c>
       <c r="I5">
-        <v>0.1100375616686749</v>
+        <v>0.60288855652226</v>
       </c>
       <c r="J5">
-        <v>0.1100375616686749</v>
+        <v>0.60288855652226</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N5">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O5">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P5">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q5">
-        <v>7.226031071336</v>
+        <v>0.9520333476059999</v>
       </c>
       <c r="R5">
-        <v>65.034279642024</v>
+        <v>8.568300128454</v>
       </c>
       <c r="S5">
-        <v>0.004156096304410493</v>
+        <v>0.003100568556190898</v>
       </c>
       <c r="T5">
-        <v>0.004156096304410494</v>
+        <v>0.003100568556190899</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>9.421533</v>
       </c>
       <c r="I6">
-        <v>0.1100375616686749</v>
+        <v>0.60288855652226</v>
       </c>
       <c r="J6">
-        <v>0.1100375616686749</v>
+        <v>0.60288855652226</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>50.889365</v>
       </c>
       <c r="O6">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P6">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q6">
         <v>53.272870188505</v>
@@ -818,10 +818,10 @@
         <v>479.455831696545</v>
       </c>
       <c r="S6">
-        <v>0.0306402196074214</v>
+        <v>0.1734983198013736</v>
       </c>
       <c r="T6">
-        <v>0.0306402196074214</v>
+        <v>0.1734983198013736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>9.421533</v>
       </c>
       <c r="I7">
-        <v>0.1100375616686749</v>
+        <v>0.60288855652226</v>
       </c>
       <c r="J7">
-        <v>0.1100375616686749</v>
+        <v>0.60288855652226</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N7">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O7">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P7">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q7">
-        <v>130.818811659393</v>
+        <v>130.89276127191</v>
       </c>
       <c r="R7">
-        <v>1177.369304934537</v>
+        <v>1178.03485144719</v>
       </c>
       <c r="S7">
-        <v>0.07524124575684302</v>
+        <v>0.4262896681646955</v>
       </c>
       <c r="T7">
-        <v>0.07524124575684303</v>
+        <v>0.4262896681646955</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.447052333333334</v>
+        <v>1.603946333333333</v>
       </c>
       <c r="H8">
-        <v>16.341157</v>
+        <v>4.811839</v>
       </c>
       <c r="I8">
-        <v>0.1908544045990179</v>
+        <v>0.3079119575261812</v>
       </c>
       <c r="J8">
-        <v>0.1908544045990179</v>
+        <v>0.3079119575261813</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N8">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O8">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P8">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q8">
-        <v>12.53317355292178</v>
+        <v>0.4862299151646666</v>
       </c>
       <c r="R8">
-        <v>112.798561976296</v>
+        <v>4.376069236482</v>
       </c>
       <c r="S8">
-        <v>0.007208532010394877</v>
+        <v>0.00158354661612426</v>
       </c>
       <c r="T8">
-        <v>0.007208532010394877</v>
+        <v>0.001583546616124261</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.447052333333334</v>
+        <v>1.603946333333333</v>
       </c>
       <c r="H9">
-        <v>16.341157</v>
+        <v>4.811839</v>
       </c>
       <c r="I9">
-        <v>0.1908544045990179</v>
+        <v>0.3079119575261812</v>
       </c>
       <c r="J9">
-        <v>0.1908544045990179</v>
+        <v>0.3079119575261813</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>50.889365</v>
       </c>
       <c r="O9">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P9">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q9">
-        <v>92.3990114550339</v>
+        <v>27.20793679913722</v>
       </c>
       <c r="R9">
-        <v>831.5911030953051</v>
+        <v>244.871431192235</v>
       </c>
       <c r="S9">
-        <v>0.05314386088966111</v>
+        <v>0.08861041845894101</v>
       </c>
       <c r="T9">
-        <v>0.05314386088966112</v>
+        <v>0.08861041845894103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.447052333333334</v>
+        <v>1.603946333333333</v>
       </c>
       <c r="H10">
-        <v>16.341157</v>
+        <v>4.811839</v>
       </c>
       <c r="I10">
-        <v>0.1908544045990179</v>
+        <v>0.3079119575261812</v>
       </c>
       <c r="J10">
-        <v>0.1908544045990179</v>
+        <v>0.3079119575261813</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N10">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O10">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P10">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q10">
-        <v>226.8983975197637</v>
+        <v>66.85057447719666</v>
       </c>
       <c r="R10">
-        <v>2042.085577677873</v>
+        <v>601.65517029477</v>
       </c>
       <c r="S10">
-        <v>0.1305020116989619</v>
+        <v>0.217717992451116</v>
       </c>
       <c r="T10">
-        <v>0.1305020116989619</v>
+        <v>0.217717992451116</v>
       </c>
     </row>
   </sheetData>
